--- a/xlsx/美国种族及民族_intext.xlsx
+++ b/xlsx/美国种族及民族_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>美国种族及民族</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国人口</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国种族及民族</t>
+    <t>政策_政策_美国_美国种族及民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -137,9 +137,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%A7%8D%E4%BA%BA</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>少數民族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
@@ -203,13 +194,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -281,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族語言學</t>
+    <t>民族语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -299,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛民族主義</t>
+    <t>泛民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -365,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>文化認同</t>
+    <t>文化认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E5%9C%B0%E5%9C%B0%E5%90%8D%E4%B8%8E%E5%A4%96%E6%9D%A5%E5%9C%B0%E5%90%8D</t>
@@ -401,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>多民族國家</t>
+    <t>多民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E6%95%A3%E6%94%BF%E6%B2%BB</t>
@@ -431,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族恐怖主義</t>
+    <t>民族恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%84%AA%E8%B6%8A%E6%84%9F</t>
   </si>
   <si>
-    <t>民族優越感</t>
+    <t>民族优越感</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -1371,7 +1359,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
         <v>13</v>
@@ -1397,10 +1385,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1426,10 +1414,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1455,10 +1443,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1484,10 +1472,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1513,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1542,10 +1530,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1571,10 +1559,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1600,10 +1588,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1629,10 +1617,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1658,10 +1646,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1687,10 +1675,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1716,10 +1704,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1745,10 +1733,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1774,10 +1762,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1803,10 +1791,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1832,10 +1820,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1861,10 +1849,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1890,10 +1878,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1919,10 +1907,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1948,10 +1936,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1977,10 +1965,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2006,10 +1994,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2035,10 +2023,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2064,10 +2052,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2093,10 +2081,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>12</v>
@@ -2122,10 +2110,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2151,10 +2139,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2180,10 +2168,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2209,10 +2197,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2238,10 +2226,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2267,10 +2255,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2296,10 +2284,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2325,10 +2313,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2354,10 +2342,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2383,10 +2371,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2412,10 +2400,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2441,10 +2429,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2470,10 +2458,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2499,10 +2487,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2528,10 +2516,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2557,10 +2545,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2586,10 +2574,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2615,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -2644,10 +2632,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2673,10 +2661,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2702,10 +2690,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2731,10 +2719,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2760,10 +2748,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2789,10 +2777,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2818,10 +2806,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2847,10 +2835,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2876,10 +2864,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2905,10 +2893,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
